--- a/Slides/Genetic_prediction.xlsx
+++ b/Slides/Genetic_prediction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryasheth/Desktop/Ironhack/Week_5/Mid_bootcamp_project/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB66BB0-5662-4741-9078-B5FB15356648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6135C8-3775-AF4A-9EE2-0F1808D1B0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" activeTab="1" xr2:uid="{DD5FD021-467C-D044-B1C3-E83423EB54AC}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" activeTab="2" xr2:uid="{DD5FD021-467C-D044-B1C3-E83423EB54AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Gene_max_diseases" sheetId="1" r:id="rId1"/>
@@ -2807,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C66212-6C01-C04D-ACDD-30C930952602}">
   <dimension ref="B3:I4905"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -27346,8 +27346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E1BF4F-4500-A54C-9BB5-8BE164C55EBC}">
   <dimension ref="B3:H734"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
